--- a/bdl/bobinas.xlsx
+++ b/bdl/bobinas.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="2075">
   <si>
     <t xml:space="preserve">code</t>
   </si>
@@ -2375,10 +2375,10 @@
     <t xml:space="preserve">35x50 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">48x50 ED 2 SDS ALT 70 COBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48x50 ED 2 SDS ALT 70</t>
+    <t xml:space="preserve">48x50 ED 2SDS ALT 70 COBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x50 ED 2SDS ALT 70</t>
   </si>
   <si>
     <t xml:space="preserve">37,00</t>
@@ -2387,28 +2387,28 @@
     <t xml:space="preserve">38x50 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">51x60 P/ DD 2 SDS ALT 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55x60 ED 2 SDS ALT 70 COBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40x50 ED ALT 60 2 SDS 4h</t>
+    <t xml:space="preserve">51x60 P/ DD 2SDS ALT 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x60 ED 2SDS ALT 70 COBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40x50 ED ALT 60 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">25,00</t>
   </si>
   <si>
-    <t xml:space="preserve">55x60 ED 2 SDS ALT 70</t>
+    <t xml:space="preserve">55x60 ED 2SDS ALT 70</t>
   </si>
   <si>
     <t xml:space="preserve">48x50 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">64x20 ED 2 SDS ALT 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48x50 ED ALT 70 2 SDS 4h</t>
+    <t xml:space="preserve">64x20 ED 2SDS ALT 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x50 ED ALT 70 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">33,00</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">51x20 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">77x20 ED 2 SDS ALT 80</t>
+    <t xml:space="preserve">77x20 ED 2SDS ALT 80</t>
   </si>
   <si>
     <t xml:space="preserve">51x60 8h</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">99x30 AL/RF 8h ALT 60</t>
   </si>
   <si>
-    <t xml:space="preserve">51x60 ED ALT 60 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99x00 ED 2 SDS ALT 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51x60 P/ DD 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99x00 ED 4 SDS ALT 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51x60 P/ DD 4 SDS 4+4h</t>
+    <t xml:space="preserve">51x60 ED ALT 60 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99x00 ED 2SDS ALT 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51x60 P/ DD 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99x00 ED 4SDS ALT 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51x60 P/ DD 4SDS 4+4h</t>
   </si>
   <si>
     <t xml:space="preserve">55x60 8h ZETTA</t>
   </si>
   <si>
-    <t xml:space="preserve">55x60 ED ALT 70 2 SDS 4h</t>
+    <t xml:space="preserve">55x60 ED ALT 70 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">BOBINAS EM FIBRA RAMOS</t>
@@ -2468,43 +2468,43 @@
     <t xml:space="preserve">31x70 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">64x00 ED ALT 70 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 70 4 SDS 4+4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 70 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 80 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 80 4 SDS 4+4h</t>
+    <t xml:space="preserve">64x00 ED ALT 70 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 70 4SDS 4+4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 70 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 80 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 80 4SDS 4+4h</t>
   </si>
   <si>
     <t xml:space="preserve">48X50 A/R 4h IMPP</t>
   </si>
   <si>
-    <t xml:space="preserve">64x00 ED ALT 80 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48X50 ED 2 SDS BX</t>
+    <t xml:space="preserve">64x00 ED ALT 80 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48X50 ED 2SDS BX</t>
   </si>
   <si>
     <t xml:space="preserve">76x80 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">48x50 ED Alt 60 2 SDS</t>
+    <t xml:space="preserve">48x50 ED Alt 60 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">76x80 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">48x50 ED ALT 70 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76x80 ED ALT 80 2 SDS</t>
+    <t xml:space="preserve">48x50 ED ALT 70 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76x80 ED ALT 80 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">70,00</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">77x00 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">77x00 ED ALT 70 2 SDS</t>
+    <t xml:space="preserve">77x00 ED ALT 70 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">99x00 N8</t>
@@ -2540,19 +2540,19 @@
     <t xml:space="preserve">99x00 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">55x60 ED ALT 70 2 SDS</t>
+    <t xml:space="preserve">55x60 ED ALT 70 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">99x00 AL/RF 4h SUPER</t>
   </si>
   <si>
-    <t xml:space="preserve">55x60 ED ALT 70 4 SDS 2+2h</t>
+    <t xml:space="preserve">55x60 ED ALT 70 4SDS 2+2h</t>
   </si>
   <si>
     <t xml:space="preserve">99x00 AL/RF 8h SUPER</t>
   </si>
   <si>
-    <t xml:space="preserve">55x60 ED ALT 100 E 40 2 SDS</t>
+    <t xml:space="preserve">55x60 ED ALT 100 E 40 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">99x30 AL/RF 8h</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">99x30 AL/RF 8h SUPER</t>
   </si>
   <si>
-    <t xml:space="preserve">97x40 ED ALT 80 2 SDS 5200</t>
+    <t xml:space="preserve">97x40 ED ALT 80 2SDS 5200</t>
   </si>
   <si>
     <t xml:space="preserve">76,00</t>
@@ -2585,16 +2585,16 @@
     <t xml:space="preserve">100x00 AL/RF 1505 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">100x00 ED 2 SDS TORNADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100x00 ED 4 SDS TORNADO</t>
+    <t xml:space="preserve">100x00 ED 2SDS TORNADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100x00 ED 4SDS TORNADO</t>
   </si>
   <si>
     <t xml:space="preserve">101x60 AL/RF 8h LOOKSOM</t>
   </si>
   <si>
-    <t xml:space="preserve">97x70 GO ED 2 SDS</t>
+    <t xml:space="preserve">97x70 GO ED 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">114x00 ALT 70 8h</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">99x00 ALT 70 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">99x00 ED ALT 80 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99x00 ED ALT 80 2 SDS</t>
+    <t xml:space="preserve">99x00 ED ALT 80 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99x00 ED ALT 80 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">99x30 ALT 60 8h</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">102x00 ALT 60 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">102x60 AL80 E30 2 SDS EROS</t>
+    <t xml:space="preserve">102x60 AL80 E30 2SDS EROS</t>
   </si>
   <si>
     <t xml:space="preserve">114x00 AL/RF 4h</t>
@@ -4946,52 +4946,52 @@
     <t xml:space="preserve">IRFB 5620</t>
   </si>
   <si>
-    <t xml:space="preserve">13x00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13x00 AL/RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13x33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13x33 AL/RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14x00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14X00 AR/RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14x40 AL/RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14x70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14x70 AL/RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16x30 +AL/RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18x50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19x00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19X00 AL/RF</t>
+    <t xml:space="preserve">13x00 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13x00 AL/RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13x33 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13x33 AL/RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14x00 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14X00 AL/RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14x40 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14x40 AL/RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14x70 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14x70 AL/RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15x30 n4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16x30 n4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16x30 +AL/RF n4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18x50 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19x00 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19X00 AL/RF 4h</t>
   </si>
   <si>
     <t xml:space="preserve">19x50 4h</t>
@@ -5006,10 +5006,10 @@
     <t xml:space="preserve">19x50 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">20x00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20X00 AL/RF</t>
+    <t xml:space="preserve">20x00 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20X00 AL/RF 4h</t>
   </si>
   <si>
     <t xml:space="preserve">20x50 4h</t>
@@ -5024,13 +5024,29 @@
     <t xml:space="preserve">20x50 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">23x50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24x70 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24x70 RF 4h</t>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">23x50 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">n4h</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">24x70 n4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24x70 RF n4h</t>
   </si>
   <si>
     <t xml:space="preserve">24x70 8h</t>
@@ -5147,13 +5163,13 @@
     <t xml:space="preserve">30x00 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">30x50 4h (93/96) IMPORTADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30x50 4h (93/96) SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30x50 8h</t>
+    <t xml:space="preserve">30x50 22.8 4h (93/96) IMPORTADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30x50 22.8 4h (93/96) SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30x50 22.8 8h</t>
   </si>
   <si>
     <t xml:space="preserve">30x50 AL/RF 4h *PROMOÇÃO*</t>
@@ -5174,10 +5190,10 @@
     <t xml:space="preserve">31x70 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">31x70 ED 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31x70 ED 4 SDS</t>
+    <t xml:space="preserve">31x70 ED 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31x70 ED 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">31x70 AL/RF 4h</t>
@@ -5198,7 +5214,7 @@
     <t xml:space="preserve">32x00 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">32X00 ED 2 sds 6h</t>
+    <t xml:space="preserve">32X00 ED 2SDS 6h</t>
   </si>
   <si>
     <t xml:space="preserve">32x40 8h</t>
@@ -5210,22 +5226,22 @@
     <t xml:space="preserve">32x40 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">32x40 ED 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32x40 ED AL/RF 2 SDS 4h Bravox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32x40 ED 2 SDS 6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32x40 ED 4 SDS 6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32x40 ED 4 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32x40 ED AL/RF 4 SDS 4h</t>
+    <t xml:space="preserve">32x40 ED 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32x40 ED AL/RF 2SDS 4h Bravox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32x40 ED 2SDS 6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32x40 ED 4SDS 6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32x40 ED 4SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32x40 ED AL/RF 4SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">32x50 4h</t>
@@ -5258,10 +5274,10 @@
     <t xml:space="preserve">33x00 ED 6h / 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">35x50 4h *PROMOÇÃO*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35x50 8h</t>
+    <t xml:space="preserve">35x50 37 4h *PROMOÇÃO*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35x50 37 8h</t>
   </si>
   <si>
     <t xml:space="preserve">35x50 AL/RF 4h</t>
@@ -5270,10 +5286,10 @@
     <t xml:space="preserve">35x50 AL/RF  8h</t>
   </si>
   <si>
-    <t xml:space="preserve">35x50 ALONGADA 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35x50 ALONGADA 6h</t>
+    <t xml:space="preserve">35x50 50 ALONGADA 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35x50 50 ALONGADA 6h</t>
   </si>
   <si>
     <t xml:space="preserve">35x50 ED 4h</t>
@@ -5282,16 +5298,16 @@
     <t xml:space="preserve">35x50 ED 6h</t>
   </si>
   <si>
-    <t xml:space="preserve">35x50 ED ALONGADA 6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35x50 ED ALONGADA 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35x50 ED ALONGADA 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35x50 ED ALONGADA 12h</t>
+    <t xml:space="preserve">35x50 50 ED ALONGADA 6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35x50 50 ED ALONGADA 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35x50 50 ED ALONGADA 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35x50 50 ED ALONGADA 12h</t>
   </si>
   <si>
     <t xml:space="preserve">36x00 4h Pioneer *PROMOÇÃO*</t>
@@ -5315,88 +5331,91 @@
     <t xml:space="preserve">38x00 +AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">38x00 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 RF 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 RF 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 ED AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x00 ED AL/RF 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 4h *PROMOÇÃO*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 ED AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 ED AL/RF 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 RF 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 RF 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 Along/RF  4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x50 Along/RF  8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 4h *PROMOÇÃO*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 RF 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 RF 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 Along/RF 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 Along/RF 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 ED AL/RF 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 ED AL/RF 2 SDS 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 ED Al/RF 2 SDS 6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 ED Al/RF 4 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38x70 ED AL/RF 2 SDS 12h</t>
+    <t xml:space="preserve">38x00 35 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 35 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 35 RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 35 RF 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 50 ED AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x00 50 ED AL/RF 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50  35 4h *PROMOÇÃO*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 35 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 50 ED AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 50 ED AL/RF 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 35 RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 35 RF 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 50 Along/RF  4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x50 50 Along/RF  8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 35 4h *PROMOÇÃO*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 35 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 35 RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 35 RF 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 Along 50 RF 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 Along 50 RF 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 50 ED AL/RF 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 50  ED AL/RF 2SDS 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 50 ED Al/RF 2SDS 6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 50 ED AL/RF 4SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38x70 50 ED AL/RF 2SDS 12h</t>
   </si>
   <si>
     <t xml:space="preserve">39x50 4h Pioneer *PROMOÇÃO*</t>
@@ -5414,7 +5433,7 @@
     <t xml:space="preserve">40x50 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">40x50 ED AL/RF 2 SDS *Prom.*</t>
+    <t xml:space="preserve">40x50 ED AL/RF 2SDS *Prom.*</t>
   </si>
   <si>
     <t xml:space="preserve">44x00 4h</t>
@@ -5429,7 +5448,7 @@
     <t xml:space="preserve">44x00 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">44X00 ED 4 SDS</t>
+    <t xml:space="preserve">44X00 ED 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">44x70 4h ARLEM</t>
@@ -5444,7 +5463,7 @@
     <t xml:space="preserve">44x70 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">44x70 ED bx 4 SDS</t>
+    <t xml:space="preserve">44x70 ED bx 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">45x00 4h</t>
@@ -5465,19 +5484,19 @@
     <t xml:space="preserve">45X00 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">45x00 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45x00 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45x00 ED AL/RF 2 SDS</t>
+    <t xml:space="preserve">45x00 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45x00 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45x00 ED AL/RF 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">21,00</t>
   </si>
   <si>
-    <t xml:space="preserve">45x00 ED AL/RF 4 SDS</t>
+    <t xml:space="preserve">45x00 ED AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">45x50 4h</t>
@@ -5495,16 +5514,16 @@
     <t xml:space="preserve">45x50 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">45x50 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45x50 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45x50 AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45X50 AL/RF 4 SDS</t>
+    <t xml:space="preserve">45x50 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45x50 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45x50 AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45X50 AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">46x00 4h</t>
@@ -5525,28 +5544,28 @@
     <t xml:space="preserve">46x00 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">46x00 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46x00 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46x00 ED AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46x00 ED AL/RF 4 SDS</t>
+    <t xml:space="preserve">46x00 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46x00 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46x00 ED AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46x00 ED AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">46x10 AL/RF 4h BOMBER</t>
   </si>
   <si>
-    <t xml:space="preserve">46x10 ED AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46x10 ED AL/RF 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46x10 ED AL/RF 4 SDS</t>
+    <t xml:space="preserve">46x10 ED AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46x10 ED AL/RF 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46x10 ED AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">48x50 4h</t>
@@ -5561,19 +5580,19 @@
     <t xml:space="preserve">48x50 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">48x50 ED +AL/RF 2 SDS 4h SP*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48x50 ED +AL/RF 4 SDS 2+2h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48x50 ED +AL/RF 4 SDS 4+4h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48x50 ED +AL/RF 2 SDS 4h GO*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48x50 ED Bx 2 SDS 4h SLIM</t>
+    <t xml:space="preserve">48x50 ED 70 +ALRF 2SDS 4h SP* D-52.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x50 ED 70 +AL/RF 4SDS 2+2h*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x50 ED 70 +AL/RF 4SDS 4+4h*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x50 ED 70 +AL/RF 2SDS 4h GO* D-52.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48x50 ED Bx 2SDS 4h SLIM</t>
   </si>
   <si>
     <t xml:space="preserve">49x50 AL/RF 4h</t>
@@ -5594,19 +5613,19 @@
     <t xml:space="preserve">49x50 ED BX 2SDS</t>
   </si>
   <si>
-    <t xml:space="preserve">49x50 ED AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49x50 ED +AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49x50 ED +AL/RF 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49x50 P/ KICKER 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49x50 ED AL/RF 4 SDS 2+2h</t>
+    <t xml:space="preserve">49x50 ED AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49x50 ED +AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49x50 ED +AL/RF 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49x50 P/ KICKER 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49x50 ED AL/RF 4SDS 2+2h</t>
   </si>
   <si>
     <t xml:space="preserve">49x50 P/ KICKER 2+2h</t>
@@ -5633,25 +5652,25 @@
     <t xml:space="preserve">50x50 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">50x50 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50 ED +AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50 ED +AL/RF 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50 ED +AL/RF 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50 ED +AL/RF 2 SDS 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x50 ED +AL/RF 4 SDS 8h</t>
+    <t xml:space="preserve">50x50 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x50 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x50 ED +AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x50 ED +AL/RF 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x50 ED +AL/RF 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x50 ED +AL/RF 2SDS 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x50 ED +AL/RF 4SDS 8h</t>
   </si>
   <si>
     <t xml:space="preserve">51x00 8h</t>
@@ -5687,10 +5706,10 @@
     <t xml:space="preserve">51x60 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">51x60 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51x60 ED bx 2 SDS</t>
+    <t xml:space="preserve">51x60 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51x60 ED bx 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">51x60 ED AL/RF 2SDS AL60</t>
@@ -5702,16 +5721,16 @@
     <t xml:space="preserve">51x60 ED AL/RF 4SDS 2h AL60</t>
   </si>
   <si>
-    <t xml:space="preserve">51x60 ED 2 SDS 8h AL60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51x60 P/ DD 2 SDS *Prom.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51x60 P/ DD 4 SDS *Prom.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51x60 P/ DD 4 SDS 2+2h *Prom.</t>
+    <t xml:space="preserve">51x60 ED 2SDS 8h AL60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51x60 P/ DD 2SDS *Prom.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51x60 P/ DD 4SDS *Prom.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51x60 P/ DD 4SDS 2+2h *Prom.</t>
   </si>
   <si>
     <t xml:space="preserve">55x60 4h (ZETTA)</t>
@@ -5723,19 +5742,19 @@
     <t xml:space="preserve">55x60 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">55x60 ED ALT 70 4 SDS 2+2h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55x60 ED ALT 70 2 SDS 4h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55x60 ED ALT 70 4 SDS 4+4h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55x60 ED ALT 70 2 SDS 2h*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55x60 ED ALT 70 2 SDS 4h GO*</t>
+    <t xml:space="preserve">55x60 ED ALT 70 4SDS 2+2h* D-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x60 ED ALT 70 2SDS 4h* D-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x60 ED ALT 70 4SDS 4+4h* D-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x60 ED ALT 70 2SDS 2h*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55x60 ED ALT 70 2SDS 4h GO*</t>
   </si>
   <si>
     <t xml:space="preserve">60x00 4h</t>
@@ -5753,25 +5772,25 @@
     <t xml:space="preserve">60x00 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">60x00 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x00 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x00 ED ALT 60 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x00 ED ALT 60 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x00 ED ALT 70 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x00 ED ALT 70 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x00 ED ALT 70 4 SDS 2+2h</t>
+    <t xml:space="preserve">60x00 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x00 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x00 ED ALT 60 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x00 ED ALT 60 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x00 ED ALT 70 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x00 ED ALT 70 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x00 ED ALT 70 4SDS 2+2h</t>
   </si>
   <si>
     <t xml:space="preserve">61x00 4h</t>
@@ -5783,10 +5802,10 @@
     <t xml:space="preserve">61x00 RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">61x00 ED +AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61x00 ED +AL/RF 4 SDS</t>
+    <t xml:space="preserve">61x00 ED +AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61x00 ED +AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">63x10 4h</t>
@@ -5804,10 +5823,10 @@
     <t xml:space="preserve">63x10 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">63x10 AL/RF 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63x10 AL/RF 4 SDS 4+4h</t>
+    <t xml:space="preserve">63x10 AL/RF 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63x10 AL/RF 4SDS 4+4h</t>
   </si>
   <si>
     <t xml:space="preserve">63x50 4h</t>
@@ -5828,10 +5847,10 @@
     <t xml:space="preserve">63x50 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">63x50 ED ALT 60 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63x50 ED ALT 70 2 SDS</t>
+    <t xml:space="preserve">63x50 ED ALT 60 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63x50 ED ALT 70 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">63x50 AL 80 ED 4SDS 2+2h</t>
@@ -5855,28 +5874,28 @@
     <t xml:space="preserve">64x00 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">64x00 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 60 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 60 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 70 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 70 2 SDS 8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED ALT 70 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64x00 ED AL80 2 SDS 4h</t>
+    <t xml:space="preserve">64x00 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 60 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 60 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 70 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 70 2SDS 8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED ALT 70 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64x00 ED AL80 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">64x00 ED AL80 4SDS 2+2h</t>
@@ -5909,19 +5928,19 @@
     <t xml:space="preserve">65x50 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">65x50 ED AL/RF 2 SDS AL 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65x50 ED AL/RF 4 SDS AL 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65X50 ED ALT 70 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65X50 ED ALT 70 4 SDS 4+4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65X50 ED ALT 80 2 SDS 4h</t>
+    <t xml:space="preserve">65x50 ED AL/RF 2SDS AL 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65x50 ED AL/RF 4SDS AL 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65X50 ED ALT 70 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65X50 ED ALT 70 4SDS 4+4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65X50 ED ALT 80 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">65X50 ED ALT 80 2+2h Pioneer</t>
@@ -5945,13 +5964,13 @@
     <t xml:space="preserve">74x70 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">74x70 ED +AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74x70 ED +AL/RF 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74x70 ED +AL/RF 4 SDS</t>
+    <t xml:space="preserve">74x70 ED +AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74x70 ED +AL/RF 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74x70 ED +AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">75x00 8h</t>
@@ -5993,7 +6012,7 @@
     <t xml:space="preserve">76x80 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">76x80 ED 2SDS ALT80</t>
+    <t xml:space="preserve">76x80 ED 2SDS ALT 80 D-81 </t>
   </si>
   <si>
     <t xml:space="preserve">77X00 4h</t>
@@ -6005,16 +6024,16 @@
     <t xml:space="preserve">77x00 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">77x00 ED bx 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77x00 ED bx 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77x00 ED AL/RF 2 SDS AL60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77x00 ED AL/RF 4 SDS AL60</t>
+    <t xml:space="preserve">77x00 ED bx 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77x00 ED bx 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77x00 ED AL/RF 2SDS AL60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77x00 ED AL/RF 4SDS AL60</t>
   </si>
   <si>
     <t xml:space="preserve">77x00 ED 2SDS ALT 70</t>
@@ -6023,13 +6042,13 @@
     <t xml:space="preserve">77x00 ED 4SDS 4+4 AL 70</t>
   </si>
   <si>
-    <t xml:space="preserve">77x00 ED  2 SDS AL 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77x00 ED  4 SDS AL 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77x00 ED 4 SDS 2+2h AL 80</t>
+    <t xml:space="preserve">77x00 ED  2SDS AL 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77x00 ED  4SDS AL 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77x00 ED 4SDS 2+2h AL 80</t>
   </si>
   <si>
     <r>
@@ -6053,13 +6072,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">96x10 4 SDS ALT 70</t>
+    <t xml:space="preserve">96x10 4SDS ALT 70</t>
   </si>
   <si>
     <t xml:space="preserve">96x10 AL/RF ARLEN</t>
   </si>
   <si>
-    <t xml:space="preserve">96x10 AL/RF 2 SDS</t>
+    <t xml:space="preserve">96x10 AL/RF 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">39,00</t>
@@ -6068,10 +6087,10 @@
     <t xml:space="preserve">97x40 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">97x40 ED AL 80 2 SDS Tornado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97x40 ED 2 SDS 4h</t>
+    <t xml:space="preserve">97x40 ED AL 80 2SDS Tornado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97x40 ED 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">98x70 8h</t>
@@ -6104,13 +6123,13 @@
     <t xml:space="preserve">99x00 ALT 70 4h SUPER</t>
   </si>
   <si>
-    <t xml:space="preserve">99x00 ED ALT 70 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99x00 ED ALT 70 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99x00 ED ALT 70 2 SDS 8h</t>
+    <t xml:space="preserve">99x00 ED ALT 70 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99x00 ED ALT 70 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99x00 ED ALT 70 2SDS 8h</t>
   </si>
   <si>
     <t xml:space="preserve">99x00 ED bx 2 Saidas</t>
@@ -6119,10 +6138,10 @@
     <t xml:space="preserve">99x00 ED bx 4 Saidas</t>
   </si>
   <si>
-    <t xml:space="preserve">99X00 ED AL/RF 2 sds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99X00 ED AL/RF 4 sds</t>
+    <t xml:space="preserve">99X00 ED AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99X00 ED AL/RF 4SDS</t>
   </si>
   <si>
     <t xml:space="preserve">99x10 8h</t>
@@ -6155,7 +6174,7 @@
     <t xml:space="preserve">99x30 +AL/RF ED 4SD</t>
   </si>
   <si>
-    <t xml:space="preserve">99x30 +AL/RF 2 SDS 8h</t>
+    <t xml:space="preserve">99x30 +AL/RF 2SDS 8h</t>
   </si>
   <si>
     <t xml:space="preserve">100x00 AL 70 E 30 4h</t>
@@ -6173,16 +6192,16 @@
     <t xml:space="preserve">100x00 AL/RF 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">100x00 +AL/RF 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100x00 ED 2 SDS TORNADO 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100x00 ED 4 SDS TORNADO 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100x00 ED 4 SDS TORNADO 4+4h</t>
+    <t xml:space="preserve">100x00 +AL/RF 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100x00 ED 2SDS TORNADO 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100x00 ED 4SDS TORNADO 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100x00 ED 4SDS TORNADO 4+4h</t>
   </si>
   <si>
     <t xml:space="preserve">101x60 AL/RF 8h</t>
@@ -6206,58 +6225,58 @@
     <t xml:space="preserve">102x60 AL 80 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">102x60 ED AL 80 2 SDS 4h</t>
+    <t xml:space="preserve">102x60 ED AL 80 2SDS 4h</t>
   </si>
   <si>
     <t xml:space="preserve">63,00</t>
   </si>
   <si>
-    <t xml:space="preserve">114x00 ED 2 SDS 4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114x00 ED 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114x00 ED 4 SDS 4+4h</t>
+    <t xml:space="preserve">114x00 ED 2SDS 4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114x00 ED 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114x00 ED 4SDS 4+4h</t>
   </si>
   <si>
     <t xml:space="preserve">48x50 AL/RF 8h</t>
   </si>
   <si>
-    <t xml:space="preserve">63x50 ED ALT 70 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63x50 ED ALT 80 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63x50 ED ALT 90 2 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63x50 ED ALT 90 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65x50 ED ALT 80 4 SDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77x00 ED ALT 70 4 SDS 2+2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96x10 ED ALT 70 2 SDS</t>
+    <t xml:space="preserve">63x50 ED ALT 70 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63x50 ED ALT 80 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63x50 ED ALT 90 2SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63x50 ED ALT 90 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65x50 ED ALT 80 4SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77x00 ED ALT 70 4SDS 2+2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96x10 ED ALT 70 2SDS</t>
   </si>
   <si>
     <t xml:space="preserve">55x60 ED ALT 100 EVOK 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">38x50 ED AL/RF 2 SDS 6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25x50 ED AL/RF 2 SDS 8h</t>
+    <t xml:space="preserve">38x50 ED AL/RF 2SDS 6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25x50 ED AL/RF 2SDS 8h</t>
   </si>
   <si>
     <t xml:space="preserve">60x00 ED ALT 100 EVOK 4h</t>
   </si>
   <si>
-    <t xml:space="preserve">38x50 ED AL/RF 4 SDS 2+2h</t>
+    <t xml:space="preserve">38x50 ED AL/RF 4SDS 2+2h</t>
   </si>
   <si>
     <t xml:space="preserve">76x40 ED ALT 100 EVOK 4h</t>
@@ -6271,7 +6290,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6320,6 +6339,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
@@ -6403,7 +6427,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6415,7 +6439,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6439,7 +6463,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6455,11 +6479,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6474,7 +6498,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6497,11 +6521,11 @@
   </sheetPr>
   <dimension ref="A1:I899"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A486" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A493" activeCellId="0" sqref="A493"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A525" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E538" activeCellId="0" sqref="E538"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28"/>
@@ -25897,8 +25921,8 @@
     <mergeCell ref="B831:H831"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -25913,14 +25937,14 @@
   </sheetPr>
   <dimension ref="A1:H899"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J237" activeCellId="0" sqref="J237"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.54"/>
   </cols>
   <sheetData>
@@ -27403,7 +27427,7 @@
         <v>1913</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>787</v>
+        <v>1773</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>665</v>
@@ -27414,7 +27438,7 @@
         <v>1914</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>18</v>
@@ -27425,7 +27449,7 @@
         <v>1915</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>18</v>
@@ -27436,7 +27460,7 @@
         <v>1916</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>133</v>
@@ -27447,7 +27471,7 @@
         <v>1917</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>133</v>
@@ -27458,7 +27482,7 @@
         <v>1918</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>37</v>
@@ -27469,7 +27493,7 @@
         <v>1919</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>37</v>
@@ -27480,7 +27504,7 @@
         <v>1920</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>552</v>
@@ -27491,7 +27515,7 @@
         <v>1921</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>552</v>
@@ -27502,7 +27526,7 @@
         <v>1922</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>477</v>
@@ -27513,7 +27537,7 @@
         <v>1923</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>665</v>
@@ -27524,7 +27548,7 @@
         <v>1924</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>37</v>
@@ -27535,7 +27559,7 @@
         <v>1925</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>37</v>
@@ -27546,7 +27570,7 @@
         <v>1926</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>552</v>
@@ -27557,7 +27581,7 @@
         <v>1927</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>552</v>
@@ -27568,7 +27592,7 @@
         <v>1928</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>18</v>
@@ -27579,7 +27603,7 @@
         <v>1929</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>18</v>
@@ -27590,7 +27614,7 @@
         <v>1930</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>18</v>
@@ -27601,7 +27625,7 @@
         <v>1931</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>18</v>
@@ -27612,7 +27636,7 @@
         <v>1932</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>18</v>
@@ -27623,7 +27647,7 @@
         <v>1933</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>477</v>
@@ -27634,7 +27658,7 @@
         <v>1934</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>477</v>
@@ -27645,7 +27669,7 @@
         <v>1935</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>665</v>
@@ -27656,7 +27680,7 @@
         <v>1936</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>253</v>
@@ -27667,7 +27691,7 @@
         <v>1937</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>253</v>
@@ -27678,7 +27702,7 @@
         <v>1938</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>128</v>
@@ -27689,7 +27713,7 @@
         <v>1939</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>552</v>
@@ -27700,7 +27724,7 @@
         <v>1940</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>552</v>
@@ -27711,7 +27735,7 @@
         <v>1941</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>46</v>
@@ -27722,7 +27746,7 @@
         <v>1942</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>46</v>
@@ -27733,7 +27757,7 @@
         <v>1943</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>18</v>
@@ -27744,7 +27768,7 @@
         <v>1944</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>552</v>
@@ -27755,7 +27779,7 @@
         <v>1945</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>552</v>
@@ -27766,7 +27790,7 @@
         <v>1946</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>46</v>
@@ -27777,7 +27801,7 @@
         <v>1947</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>46</v>
@@ -27788,7 +27812,7 @@
         <v>1948</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>18</v>
@@ -27799,7 +27823,7 @@
         <v>1949</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>552</v>
@@ -27810,7 +27834,7 @@
         <v>1950</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>552</v>
@@ -27821,7 +27845,7 @@
         <v>1951</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>46</v>
@@ -27832,7 +27856,7 @@
         <v>1952</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>46</v>
@@ -27843,7 +27867,7 @@
         <v>1953</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>10</v>
@@ -27854,7 +27878,7 @@
         <v>1954</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>10</v>
@@ -27865,7 +27889,7 @@
         <v>1955</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>122</v>
@@ -27876,7 +27900,7 @@
         <v>1956</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>122</v>
@@ -27887,10 +27911,10 @@
         <v>1957</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27898,10 +27922,10 @@
         <v>1958</v>
       </c>
       <c r="B180" s="9" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>1818</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27909,7 +27933,7 @@
         <v>1959</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>552</v>
@@ -27920,7 +27944,7 @@
         <v>1960</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>552</v>
@@ -27931,7 +27955,7 @@
         <v>1961</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>46</v>
@@ -27942,7 +27966,7 @@
         <v>1962</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>46</v>
@@ -27953,7 +27977,7 @@
         <v>1963</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>10</v>
@@ -27964,7 +27988,7 @@
         <v>1964</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>122</v>
@@ -27975,7 +27999,7 @@
         <v>1965</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>122</v>
@@ -27986,10 +28010,10 @@
         <v>1966</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27997,10 +28021,10 @@
         <v>1967</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28008,7 +28032,7 @@
         <v>1968</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>552</v>
@@ -28019,7 +28043,7 @@
         <v>1969</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>552</v>
@@ -28030,7 +28054,7 @@
         <v>1970</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>10</v>
@@ -28041,7 +28065,7 @@
         <v>1971</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>10</v>
@@ -28052,7 +28076,7 @@
         <v>1972</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>46</v>
@@ -28063,7 +28087,7 @@
         <v>1973</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>46</v>
@@ -28074,7 +28098,7 @@
         <v>1974</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>122</v>
@@ -28085,7 +28109,7 @@
         <v>1975</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>122</v>
@@ -28096,10 +28120,10 @@
         <v>1976</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28107,10 +28131,10 @@
         <v>1977</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28118,7 +28142,7 @@
         <v>1978</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>10</v>
@@ -28129,10 +28153,10 @@
         <v>1979</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28140,10 +28164,10 @@
         <v>1980</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28151,10 +28175,10 @@
         <v>1981</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28162,7 +28186,7 @@
         <v>1982</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>529</v>
@@ -28173,7 +28197,7 @@
         <v>1983</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>529</v>
@@ -28184,7 +28208,7 @@
         <v>1984</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>46</v>
@@ -28195,7 +28219,7 @@
         <v>1986</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>46</v>
@@ -28206,7 +28230,7 @@
         <v>1987</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>115</v>
@@ -28217,7 +28241,7 @@
         <v>1988</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>115</v>
@@ -28228,7 +28252,7 @@
         <v>1989</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>115</v>
@@ -28239,7 +28263,7 @@
         <v>1990</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>50</v>
@@ -28250,7 +28274,7 @@
         <v>1991</v>
       </c>
       <c r="B212" s="9" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>50</v>
@@ -28261,7 +28285,7 @@
         <v>1992</v>
       </c>
       <c r="B213" s="9" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>133</v>
@@ -28272,7 +28296,7 @@
         <v>1993</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>529</v>
@@ -28283,7 +28307,7 @@
         <v>1994</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>529</v>
@@ -28294,7 +28318,7 @@
         <v>1995</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>10</v>
@@ -28305,7 +28329,7 @@
         <v>1996</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>10</v>
@@ -28316,7 +28340,7 @@
         <v>1997</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>50</v>
@@ -28327,10 +28351,10 @@
         <v>1998</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28338,10 +28362,10 @@
         <v>1999</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28349,10 +28373,10 @@
         <v>2000</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28360,7 +28384,7 @@
         <v>2001</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>796</v>
@@ -28371,10 +28395,10 @@
         <v>2002</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28382,7 +28406,7 @@
         <v>2003</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>796</v>
@@ -28393,7 +28417,7 @@
         <v>2004</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>796</v>
@@ -28404,7 +28428,7 @@
         <v>2005</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>46</v>
@@ -28415,7 +28439,7 @@
         <v>2006</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>46</v>
@@ -28426,7 +28450,7 @@
         <v>2007</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>133</v>
@@ -28437,7 +28461,7 @@
         <v>2008</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>133</v>
@@ -28448,7 +28472,7 @@
         <v>2009</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>18</v>
@@ -28459,7 +28483,7 @@
         <v>2010</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C231" s="9" t="s">
         <v>18</v>
@@ -28470,7 +28494,7 @@
         <v>2011</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C232" s="9" t="s">
         <v>50</v>
@@ -28481,7 +28505,7 @@
         <v>2012</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C233" s="9" t="s">
         <v>50</v>
@@ -28492,10 +28516,10 @@
         <v>2013</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28503,10 +28527,10 @@
         <v>2014</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28514,10 +28538,10 @@
         <v>2015</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28525,10 +28549,10 @@
         <v>2016</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28536,10 +28560,10 @@
         <v>2017</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28547,7 +28571,7 @@
         <v>2018</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>46</v>
@@ -28558,7 +28582,7 @@
         <v>2019</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>46</v>
@@ -28569,7 +28593,7 @@
         <v>2020</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>46</v>
@@ -28580,7 +28604,7 @@
         <v>2021</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>133</v>
@@ -28591,7 +28615,7 @@
         <v>2022</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>133</v>
@@ -28602,7 +28626,7 @@
         <v>2023</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>46</v>
@@ -28613,7 +28637,7 @@
         <v>2024</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>46</v>
@@ -28635,7 +28659,7 @@
         <v>2026</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>133</v>
@@ -28646,7 +28670,7 @@
         <v>2027</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>133</v>
@@ -28657,7 +28681,7 @@
         <v>2028</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C249" s="9" t="s">
         <v>122</v>
@@ -28668,7 +28692,7 @@
         <v>2029</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C250" s="9" t="s">
         <v>122</v>
@@ -28679,7 +28703,7 @@
         <v>2030</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>50</v>
@@ -28690,7 +28714,7 @@
         <v>2031</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>50</v>
@@ -28701,10 +28725,10 @@
         <v>2032</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28712,10 +28736,10 @@
         <v>2033</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28723,10 +28747,10 @@
         <v>2034</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28734,10 +28758,10 @@
         <v>2035</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28745,7 +28769,7 @@
         <v>2036</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>56</v>
@@ -28756,7 +28780,7 @@
         <v>2037</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>56</v>
@@ -28767,7 +28791,7 @@
         <v>2038</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>56</v>
@@ -28789,7 +28813,7 @@
         <v>2040</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C261" s="9" t="s">
         <v>10</v>
@@ -28800,7 +28824,7 @@
         <v>2041</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>128</v>
@@ -28811,7 +28835,7 @@
         <v>2042</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>128</v>
@@ -28822,7 +28846,7 @@
         <v>2043</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>115</v>
@@ -28833,7 +28857,7 @@
         <v>2044</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>115</v>
@@ -28844,7 +28868,7 @@
         <v>2045</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>115</v>
@@ -28855,7 +28879,7 @@
         <v>2046</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>115</v>
@@ -28866,7 +28890,7 @@
         <v>2047</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>50</v>
@@ -28877,7 +28901,7 @@
         <v>2048</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>10</v>
@@ -28899,7 +28923,7 @@
         <v>2050</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>133</v>
@@ -28910,7 +28934,7 @@
         <v>2051</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>133</v>
@@ -28921,7 +28945,7 @@
         <v>2052</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>122</v>
@@ -28932,7 +28956,7 @@
         <v>2053</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>122</v>
@@ -28943,7 +28967,7 @@
         <v>2054</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>115</v>
@@ -28954,7 +28978,7 @@
         <v>2055</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>115</v>
@@ -28965,7 +28989,7 @@
         <v>2056</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>791</v>
@@ -28976,7 +29000,7 @@
         <v>2057</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>791</v>
@@ -28987,7 +29011,7 @@
         <v>2058</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>682</v>
@@ -28998,7 +29022,7 @@
         <v>2059</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>682</v>
@@ -29009,7 +29033,7 @@
         <v>2060</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>682</v>
@@ -29020,7 +29044,7 @@
         <v>2061</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>10</v>
@@ -29031,7 +29055,7 @@
         <v>2062</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>10</v>
@@ -29042,7 +29066,7 @@
         <v>2063</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>133</v>
@@ -29053,7 +29077,7 @@
         <v>2064</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>22</v>
@@ -29064,7 +29088,7 @@
         <v>2065</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>22</v>
@@ -29075,7 +29099,7 @@
         <v>2066</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>10</v>
@@ -29086,7 +29110,7 @@
         <v>2067</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>10</v>
@@ -29097,7 +29121,7 @@
         <v>2068</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>133</v>
@@ -29108,7 +29132,7 @@
         <v>2069</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C290" s="10" t="s">
         <v>122</v>
@@ -29119,7 +29143,7 @@
         <v>2070</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C291" s="10" t="s">
         <v>122</v>
@@ -29130,7 +29154,7 @@
         <v>2071</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C292" s="10" t="s">
         <v>136</v>
@@ -29141,7 +29165,7 @@
         <v>2072</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C293" s="10" t="s">
         <v>136</v>
@@ -29152,7 +29176,7 @@
         <v>2073</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C294" s="10" t="s">
         <v>10</v>
@@ -29163,7 +29187,7 @@
         <v>2074</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C295" s="10" t="s">
         <v>10</v>
@@ -29174,7 +29198,7 @@
         <v>2075</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C296" s="10" t="s">
         <v>133</v>
@@ -29185,7 +29209,7 @@
         <v>2076</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C297" s="10" t="s">
         <v>133</v>
@@ -29196,7 +29220,7 @@
         <v>2077</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C298" s="10" t="s">
         <v>122</v>
@@ -29207,7 +29231,7 @@
         <v>2078</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C299" s="10" t="s">
         <v>122</v>
@@ -29218,7 +29242,7 @@
         <v>2079</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C300" s="10" t="s">
         <v>796</v>
@@ -29229,7 +29253,7 @@
         <v>2080</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="C301" s="10" t="s">
         <v>26</v>
@@ -29240,7 +29264,7 @@
         <v>2081</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>97</v>
@@ -29251,7 +29275,7 @@
         <v>2082</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>97</v>
@@ -29262,7 +29286,7 @@
         <v>2083</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="C304" s="10" t="s">
         <v>10</v>
@@ -29284,7 +29308,7 @@
         <v>2085</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>133</v>
@@ -29295,7 +29319,7 @@
         <v>2086</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C307" s="10" t="s">
         <v>133</v>
@@ -29306,7 +29330,7 @@
         <v>2087</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C308" s="10" t="s">
         <v>122</v>
@@ -29317,7 +29341,7 @@
         <v>2088</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C309" s="10" t="s">
         <v>122</v>
@@ -29328,7 +29352,7 @@
         <v>2089</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C310" s="10" t="s">
         <v>98</v>
@@ -29339,7 +29363,7 @@
         <v>2090</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C311" s="10" t="s">
         <v>98</v>
@@ -29350,7 +29374,7 @@
         <v>2091</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C312" s="10" t="s">
         <v>791</v>
@@ -29361,7 +29385,7 @@
         <v>2092</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C313" s="10" t="s">
         <v>791</v>
@@ -29372,7 +29396,7 @@
         <v>2093</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C314" s="10" t="s">
         <v>682</v>
@@ -29383,7 +29407,7 @@
         <v>2094</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C315" s="10" t="s">
         <v>682</v>
@@ -29394,7 +29418,7 @@
         <v>2095</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C316" s="10" t="s">
         <v>682</v>
@@ -29416,7 +29440,7 @@
         <v>2097</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>97</v>
@@ -29427,7 +29451,7 @@
         <v>2098</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>97</v>
@@ -29438,7 +29462,7 @@
         <v>2099</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>97</v>
@@ -29449,7 +29473,7 @@
         <v>2100</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C321" s="10" t="s">
         <v>133</v>
@@ -29460,7 +29484,7 @@
         <v>2101</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>122</v>
@@ -29471,7 +29495,7 @@
         <v>2102</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C323" s="10" t="s">
         <v>50</v>
@@ -29482,7 +29506,7 @@
         <v>2103</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C324" s="10" t="s">
         <v>50</v>
@@ -29493,7 +29517,7 @@
         <v>3140</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C325" s="10" t="s">
         <v>133</v>
@@ -29504,7 +29528,7 @@
         <v>2104</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C326" s="10" t="s">
         <v>133</v>
@@ -29515,7 +29539,7 @@
         <v>2105</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C327" s="10" t="s">
         <v>50</v>
@@ -29526,7 +29550,7 @@
         <v>2106</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C328" s="10" t="s">
         <v>50</v>
@@ -29537,7 +29561,7 @@
         <v>2107</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C329" s="10" t="s">
         <v>30</v>
@@ -29548,7 +29572,7 @@
         <v>2108</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C330" s="10" t="s">
         <v>30</v>
@@ -29559,7 +29583,7 @@
         <v>2109</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C331" s="10" t="s">
         <v>70</v>
@@ -29570,7 +29594,7 @@
         <v>2110</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C332" s="10" t="s">
         <v>70</v>
@@ -29581,7 +29605,7 @@
         <v>2111</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>845</v>
@@ -29592,7 +29616,7 @@
         <v>2112</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>845</v>
@@ -29603,7 +29627,7 @@
         <v>2113</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>133</v>
@@ -29614,7 +29638,7 @@
         <v>2114</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>133</v>
@@ -29625,7 +29649,7 @@
         <v>2115</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C337" s="10" t="s">
         <v>122</v>
@@ -29636,7 +29660,7 @@
         <v>2116</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C338" s="10" t="s">
         <v>122</v>
@@ -29647,7 +29671,7 @@
         <v>2117</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C339" s="10" t="s">
         <v>50</v>
@@ -29658,7 +29682,7 @@
         <v>2118</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>50</v>
@@ -29669,7 +29693,7 @@
         <v>2119</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C341" s="10" t="s">
         <v>26</v>
@@ -29680,7 +29704,7 @@
         <v>2120</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C342" s="10" t="s">
         <v>26</v>
@@ -29691,7 +29715,7 @@
         <v>2121</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C343" s="10" t="s">
         <v>26</v>
@@ -29702,7 +29726,7 @@
         <v>2122</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C344" s="10" t="s">
         <v>133</v>
@@ -29713,7 +29737,7 @@
         <v>2123</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C345" s="10" t="s">
         <v>50</v>
@@ -29724,7 +29748,7 @@
         <v>2124</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C346" s="10" t="s">
         <v>133</v>
@@ -29735,7 +29759,7 @@
         <v>2125</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C347" s="10" t="s">
         <v>133</v>
@@ -29746,7 +29770,7 @@
         <v>2126</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C348" s="10" t="s">
         <v>133</v>
@@ -29757,7 +29781,7 @@
         <v>2127</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C349" s="10" t="s">
         <v>128</v>
@@ -29768,7 +29792,7 @@
         <v>2128</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C350" s="10" t="s">
         <v>133</v>
@@ -29779,7 +29803,7 @@
         <v>2129</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C351" s="10" t="s">
         <v>128</v>
@@ -29790,7 +29814,7 @@
         <v>2130</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C352" s="10" t="s">
         <v>133</v>
@@ -29801,7 +29825,7 @@
         <v>2131</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C353" s="10" t="s">
         <v>128</v>
@@ -29823,7 +29847,7 @@
         <v>2133</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C355" s="10" t="s">
         <v>133</v>
@@ -29845,7 +29869,7 @@
         <v>2135</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C357" s="10" t="s">
         <v>128</v>
@@ -29856,7 +29880,7 @@
         <v>2136</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C358" s="10" t="s">
         <v>50</v>
@@ -29867,7 +29891,7 @@
         <v>2137</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>112</v>
@@ -29878,7 +29902,7 @@
         <v>2138</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C360" s="10" t="s">
         <v>133</v>
@@ -29922,7 +29946,7 @@
         <v>2142</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C364" s="9" t="s">
         <v>50</v>
@@ -29933,7 +29957,7 @@
         <v>2143</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C365" s="9" t="s">
         <v>50</v>
@@ -29944,7 +29968,7 @@
         <v>2144</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C366" s="9" t="s">
         <v>30</v>
@@ -29955,7 +29979,7 @@
         <v>2145</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C367" s="9" t="s">
         <v>30</v>
@@ -29966,7 +29990,7 @@
         <v>2146</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C368" s="9" t="s">
         <v>26</v>
@@ -29977,7 +30001,7 @@
         <v>2147</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C369" s="9" t="s">
         <v>26</v>
@@ -29988,7 +30012,7 @@
         <v>2148</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C370" s="9" t="s">
         <v>97</v>
@@ -29999,7 +30023,7 @@
         <v>2149</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C371" s="9" t="s">
         <v>97</v>
@@ -30010,7 +30034,7 @@
         <v>2150</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>112</v>
@@ -30021,7 +30045,7 @@
         <v>2151</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>112</v>
@@ -30032,7 +30056,7 @@
         <v>2152</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>112</v>
@@ -30043,7 +30067,7 @@
         <v>2153</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C375" s="9" t="s">
         <v>98</v>
@@ -30054,7 +30078,7 @@
         <v>2154</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C376" s="9" t="s">
         <v>112</v>
@@ -30065,7 +30089,7 @@
         <v>2155</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>84</v>
@@ -30076,10 +30100,10 @@
         <v>2156</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C378" s="9" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30087,7 +30111,7 @@
         <v>2157</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C379" s="9" t="s">
         <v>695</v>
@@ -30098,7 +30122,7 @@
         <v>2158</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>209</v>
@@ -30109,7 +30133,7 @@
         <v>2159</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C381" s="9" t="s">
         <v>845</v>
@@ -30120,7 +30144,7 @@
         <v>2160</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C382" s="9" t="s">
         <v>128</v>
@@ -30131,7 +30155,7 @@
         <v>2161</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C383" s="9" t="s">
         <v>84</v>
@@ -30142,7 +30166,7 @@
         <v>2162</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C384" s="9" t="s">
         <v>695</v>
@@ -30153,10 +30177,10 @@
         <v>2163</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C385" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30164,10 +30188,10 @@
         <v>2164</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C386" s="9" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30175,7 +30199,7 @@
         <v>2165</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C387" s="9" t="s">
         <v>50</v>
@@ -30186,7 +30210,7 @@
         <v>2166</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C388" s="9" t="s">
         <v>50</v>
@@ -30208,7 +30232,7 @@
         <v>2168</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C390" s="9" t="s">
         <v>791</v>
@@ -30219,7 +30243,7 @@
         <v>2169</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>695</v>
@@ -30230,7 +30254,7 @@
         <v>2170</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C392" s="9" t="s">
         <v>791</v>
@@ -30241,7 +30265,7 @@
         <v>2171</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C393" s="9" t="s">
         <v>92</v>
@@ -30252,7 +30276,7 @@
         <v>2172</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C394" s="9" t="s">
         <v>92</v>
@@ -30263,7 +30287,7 @@
         <v>2173</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>92</v>
@@ -30274,7 +30298,7 @@
         <v>2174</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>796</v>
@@ -30285,7 +30309,7 @@
         <v>2175</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>796</v>
@@ -30296,7 +30320,7 @@
         <v>2176</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>845</v>
@@ -30307,7 +30331,7 @@
         <v>2177</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>845</v>
@@ -30318,7 +30342,7 @@
         <v>2178</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>50</v>
@@ -30329,7 +30353,7 @@
         <v>2179</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>50</v>
@@ -30340,7 +30364,7 @@
         <v>2180</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>695</v>
@@ -30351,7 +30375,7 @@
         <v>2181</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C403" s="9" t="s">
         <v>695</v>
@@ -30362,7 +30386,7 @@
         <v>2182</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>50</v>
@@ -30373,7 +30397,7 @@
         <v>2183</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C405" s="9" t="s">
         <v>695</v>
@@ -30395,7 +30419,7 @@
         <v>2185</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C407" s="9" t="s">
         <v>695</v>
@@ -30406,7 +30430,7 @@
         <v>2186</v>
       </c>
       <c r="B408" s="9" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C408" s="9" t="s">
         <v>791</v>
@@ -30417,7 +30441,7 @@
         <v>2187</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C409" s="9" t="s">
         <v>112</v>
@@ -30428,7 +30452,7 @@
         <v>2188</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C410" s="9" t="s">
         <v>112</v>
@@ -30439,7 +30463,7 @@
         <v>2189</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C411" s="9" t="s">
         <v>112</v>
@@ -30450,7 +30474,7 @@
         <v>2190</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C412" s="9" t="s">
         <v>22</v>
@@ -30461,7 +30485,7 @@
         <v>2191</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C413" s="9" t="s">
         <v>22</v>
@@ -30472,7 +30496,7 @@
         <v>2192</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C414" s="9" t="s">
         <v>791</v>
@@ -30483,7 +30507,7 @@
         <v>2193</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C415" s="9" t="s">
         <v>791</v>
@@ -30494,7 +30518,7 @@
         <v>2194</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C416" s="9" t="s">
         <v>791</v>
@@ -30505,7 +30529,7 @@
         <v>2195</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C417" s="9" t="s">
         <v>92</v>
@@ -30516,7 +30540,7 @@
         <v>2196</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>209</v>
@@ -30527,7 +30551,7 @@
         <v>2197</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>209</v>
@@ -30538,7 +30562,7 @@
         <v>2198</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>209</v>
@@ -30549,7 +30573,7 @@
         <v>2199</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C421" s="9" t="s">
         <v>1446</v>
@@ -30560,7 +30584,7 @@
         <v>2200</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="C422" s="9" t="s">
         <v>791</v>
@@ -30571,7 +30595,7 @@
         <v>2201</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C423" s="9" t="s">
         <v>791</v>
@@ -30582,7 +30606,7 @@
         <v>2202</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="C424" s="9" t="s">
         <v>92</v>
@@ -30593,7 +30617,7 @@
         <v>2203</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="C425" s="9" t="s">
         <v>22</v>
@@ -30604,7 +30628,7 @@
         <v>2204</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C426" s="9" t="s">
         <v>1446</v>
@@ -30615,7 +30639,7 @@
         <v>2205</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C427" s="9" t="s">
         <v>1446</v>
@@ -30626,10 +30650,10 @@
         <v>2206</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30659,7 +30683,7 @@
         <v>2209</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C431" s="9" t="s">
         <v>1406</v>
@@ -30670,7 +30694,7 @@
         <v>2211</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="C432" s="9" t="s">
         <v>1406</v>
@@ -30681,7 +30705,7 @@
         <v>2212</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C433" s="9" t="s">
         <v>1406</v>
@@ -30692,7 +30716,7 @@
         <v>1985</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C434" s="9" t="s">
         <v>46</v>
@@ -30703,7 +30727,7 @@
         <v>1094</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="C435" s="9" t="s">
         <v>26</v>
@@ -30714,7 +30738,7 @@
         <v>1095</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C436" s="9" t="s">
         <v>97</v>
@@ -30725,7 +30749,7 @@
         <v>3064</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C437" s="9" t="s">
         <v>82</v>
@@ -30736,7 +30760,7 @@
         <v>3067</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="C438" s="9" t="s">
         <v>82</v>
@@ -30747,7 +30771,7 @@
         <v>3140</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C439" s="9" t="s">
         <v>133</v>
@@ -30758,7 +30782,7 @@
         <v>3101</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>845</v>
@@ -30769,7 +30793,7 @@
         <v>3048</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="C441" s="9" t="s">
         <v>97</v>
@@ -30780,7 +30804,7 @@
         <v>3102</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C442" s="9" t="s">
         <v>112</v>
@@ -30791,7 +30815,7 @@
         <v>3157</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>97</v>
@@ -30802,7 +30826,7 @@
         <v>3166</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>18</v>
@@ -30813,7 +30837,7 @@
         <v>2331</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C445" s="9" t="s">
         <v>16</v>
@@ -30824,7 +30848,7 @@
         <v>3170</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C446" s="9" t="s">
         <v>92</v>
@@ -30835,7 +30859,7 @@
         <v>3179</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C447" s="9" t="s">
         <v>18</v>
@@ -30846,7 +30870,7 @@
         <v>3181</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C448" s="9" t="s">
         <v>235</v>
@@ -33118,7 +33142,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;12Page &amp;P</oddFooter>
